--- a/backup excel/Master R&D.xlsx
+++ b/backup excel/Master R&D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKSHAT\internship_clone\mastering\backup excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC4579D-8485-4185-B426-16767128A974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC02C8A0-E8A0-49E0-809B-1F50EA1BE434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keycap" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -316,7 +316,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,6 +666,9 @@
         <f>B2/F2</f>
         <v>217192.09299999999</v>
       </c>
+      <c r="F3" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -699,6 +701,9 @@
         <f>B4/F4</f>
         <v>284352.75828571426</v>
       </c>
+      <c r="F5" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="7"/>
@@ -709,6 +714,9 @@
         <f>B4/F4</f>
         <v>284352.75828571426</v>
       </c>
+      <c r="F6" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="7"/>
@@ -719,6 +727,9 @@
         <f>B4/F4</f>
         <v>284352.75828571426</v>
       </c>
+      <c r="F7" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
@@ -729,6 +740,9 @@
         <f>B4/F4</f>
         <v>284352.75828571426</v>
       </c>
+      <c r="F8" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="7"/>
@@ -739,6 +753,9 @@
         <f>B4/F4</f>
         <v>284352.75828571426</v>
       </c>
+      <c r="F9" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
@@ -749,6 +766,9 @@
         <f>B4/F4</f>
         <v>284352.75828571426</v>
       </c>
+      <c r="F10" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -781,6 +801,9 @@
         <f>B11/F11</f>
         <v>135892.34028571428</v>
       </c>
+      <c r="F12" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
@@ -791,6 +814,9 @@
         <f>B11/F11</f>
         <v>135892.34028571428</v>
       </c>
+      <c r="F13" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="7"/>
@@ -801,6 +827,9 @@
         <f>B11/F11</f>
         <v>135892.34028571428</v>
       </c>
+      <c r="F14" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
@@ -811,6 +840,9 @@
         <f>B11/F11</f>
         <v>135892.34028571428</v>
       </c>
+      <c r="F15" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
@@ -821,6 +853,9 @@
         <f>B11/F11</f>
         <v>135892.34028571428</v>
       </c>
+      <c r="F16" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
@@ -831,6 +866,9 @@
         <f>B11/F11</f>
         <v>135892.34028571428</v>
       </c>
+      <c r="F17" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -863,6 +901,9 @@
         <f>B18/F18</f>
         <v>71480.941999999995</v>
       </c>
+      <c r="F19" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" s="7"/>
@@ -873,6 +914,9 @@
         <f>B18/F18</f>
         <v>71480.941999999995</v>
       </c>
+      <c r="F20" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
@@ -883,6 +927,9 @@
         <f>B18/F18</f>
         <v>71480.941999999995</v>
       </c>
+      <c r="F21" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -915,6 +962,9 @@
         <f>B22/F22</f>
         <v>52236.073000000004</v>
       </c>
+      <c r="F23" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" s="7"/>
@@ -925,6 +975,9 @@
         <f>B22/F22</f>
         <v>52236.073000000004</v>
       </c>
+      <c r="F24" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" s="7"/>
@@ -935,6 +988,9 @@
         <f>B22/F22</f>
         <v>52236.073000000004</v>
       </c>
+      <c r="F25" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" s="7"/>
@@ -945,6 +1001,9 @@
         <f>B22/F22</f>
         <v>52236.073000000004</v>
       </c>
+      <c r="F26" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" s="7"/>
@@ -955,6 +1014,9 @@
         <f>B22/F22</f>
         <v>52236.073000000004</v>
       </c>
+      <c r="F27" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -987,6 +1049,9 @@
         <f>B28/F28</f>
         <v>40846.252571428566</v>
       </c>
+      <c r="F29" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" s="7"/>
@@ -997,6 +1062,9 @@
         <f>B28/F28</f>
         <v>40846.252571428566</v>
       </c>
+      <c r="F30" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" s="7"/>
@@ -1007,6 +1075,9 @@
         <f>B28/F28</f>
         <v>40846.252571428566</v>
       </c>
+      <c r="F31" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" s="7"/>
@@ -1017,6 +1088,9 @@
         <f>B28/F28</f>
         <v>40846.252571428566</v>
       </c>
+      <c r="F32" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" s="7"/>
@@ -1027,6 +1101,9 @@
         <f>B28/F28</f>
         <v>40846.252571428566</v>
       </c>
+      <c r="F33" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" s="7"/>
@@ -1037,6 +1114,9 @@
         <f>B28/F28</f>
         <v>40846.252571428566</v>
       </c>
+      <c r="F34" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -1068,6 +1148,9 @@
       <c r="E36" s="1">
         <f>B35/F35</f>
         <v>56818.184666666675</v>
+      </c>
+      <c r="F36" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1076,6 +1159,9 @@
         <f>B35/F35</f>
         <v>56818.184666666675</v>
       </c>
+      <c r="F37" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -1130,6 +1216,9 @@
         <f>B39/F39</f>
         <v>142961.88399999999</v>
       </c>
+      <c r="F40" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" s="7"/>
@@ -1139,6 +1228,9 @@
       <c r="E41" s="1">
         <f>B39/F39</f>
         <v>142961.88399999999</v>
+      </c>
+      <c r="F41" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1160,7 +1252,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F4" sqref="F4:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1209,7 +1301,7 @@
         <f>B2/F2</f>
         <v>136233.541</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2">
         <v>2</v>
       </c>
     </row>
@@ -1222,7 +1314,9 @@
         <f>B2/F2</f>
         <v>136233.541</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4">
@@ -1239,7 +1333,7 @@
         <f>B4/F4</f>
         <v>177835.65771428568</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4">
         <v>7</v>
       </c>
     </row>
@@ -1252,7 +1346,9 @@
         <f>B4/F4</f>
         <v>177835.65771428568</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="7"/>
@@ -1263,7 +1359,9 @@
         <f>B4/F4</f>
         <v>177835.65771428568</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="7"/>
@@ -1274,7 +1372,9 @@
         <f>B4/F4</f>
         <v>177835.65771428568</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
@@ -1285,7 +1385,9 @@
         <f>B4/F4</f>
         <v>177835.65771428568</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="7"/>
@@ -1296,7 +1398,9 @@
         <f>B4/F4</f>
         <v>177835.65771428568</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
@@ -1307,7 +1411,9 @@
         <f>B4/F4</f>
         <v>177835.65771428568</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1327,7 +1433,7 @@
         <f>B11/F11</f>
         <v>8498973.1999999993</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11">
         <v>7</v>
       </c>
     </row>
@@ -1340,7 +1446,9 @@
         <f>B11/F11</f>
         <v>8498973.1999999993</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
@@ -1351,7 +1459,9 @@
         <f>B11/F11</f>
         <v>8498973.1999999993</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="7"/>
@@ -1362,7 +1472,9 @@
         <f>B11/F11</f>
         <v>8498973.1999999993</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
@@ -1373,7 +1485,9 @@
         <f>B11/F11</f>
         <v>8498973.1999999993</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
@@ -1384,7 +1498,9 @@
         <f>B11/F11</f>
         <v>8498973.1999999993</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
@@ -1395,7 +1511,9 @@
         <f>B11/F11</f>
         <v>8498973.1999999993</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1437,7 +1555,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F4" sqref="F4:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1486,7 +1604,7 @@
         <f>B2/F2</f>
         <v>113580.0135</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2">
         <v>2</v>
       </c>
     </row>
@@ -1499,7 +1617,9 @@
         <f>B2/F2</f>
         <v>113580.0135</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1519,7 +1639,7 @@
         <f>B4/F4</f>
         <v>71149.384714285712</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4">
         <v>7</v>
       </c>
     </row>
@@ -1532,7 +1652,9 @@
         <f>B4/F4</f>
         <v>71149.384714285712</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
@@ -1543,7 +1665,9 @@
         <f>B4/F4</f>
         <v>71149.384714285712</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
@@ -1554,7 +1678,9 @@
         <f>B4/F4</f>
         <v>71149.384714285712</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
@@ -1565,7 +1691,9 @@
         <f>B4/F4</f>
         <v>71149.384714285712</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
@@ -1576,7 +1704,9 @@
         <f>B4/F4</f>
         <v>71149.384714285712</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
@@ -1587,7 +1717,9 @@
         <f>B4/F4</f>
         <v>71149.384714285712</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10">
+        <v>7</v>
+      </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1630,7 +1762,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1689,6 +1821,9 @@
         <f>B2/F2</f>
         <v>201618.57599999997</v>
       </c>
+      <c r="F3" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1721,6 +1856,9 @@
         <f>B4/F4</f>
         <v>125950.58742857144</v>
       </c>
+      <c r="F5" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="7"/>
@@ -1731,6 +1869,9 @@
         <f>B4/F4</f>
         <v>125950.58742857144</v>
       </c>
+      <c r="F6" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="7"/>
@@ -1741,6 +1882,9 @@
         <f>B4/F4</f>
         <v>125950.58742857144</v>
       </c>
+      <c r="F7" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
@@ -1751,6 +1895,9 @@
         <f>B4/F4</f>
         <v>125950.58742857144</v>
       </c>
+      <c r="F8" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="7"/>
@@ -1761,6 +1908,9 @@
         <f>B4/F4</f>
         <v>125950.58742857144</v>
       </c>
+      <c r="F9" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
@@ -1771,6 +1921,9 @@
         <f>B4/F4</f>
         <v>125950.58742857144</v>
       </c>
+      <c r="F10" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1825,6 +1978,9 @@
         <f>B12/F12</f>
         <v>132893.6</v>
       </c>
+      <c r="F13" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="7"/>
@@ -1834,6 +1990,9 @@
       <c r="E14" s="1">
         <f>B12/F12</f>
         <v>132893.6</v>
+      </c>
+      <c r="F14" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1854,7 +2013,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1916,6 +2075,9 @@
         <f>B2/F2</f>
         <v>245024.12399999998</v>
       </c>
+      <c r="F3" s="10">
+        <v>2</v>
+      </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1975,6 +2137,9 @@
         <f>B5/F5</f>
         <v>161623.894</v>
       </c>
+      <c r="F6" s="10">
+        <v>3</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="K6" s="1"/>
     </row>
@@ -1986,6 +2151,9 @@
       <c r="E7" s="1">
         <f>B5/F5</f>
         <v>161623.894</v>
+      </c>
+      <c r="F7" s="10">
+        <v>3</v>
       </c>
       <c r="H7" s="4"/>
       <c r="K7" s="1"/>
@@ -2479,7 +2647,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F19" sqref="F19:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2530,7 +2698,7 @@
         <f>B2/F2</f>
         <v>147000.00000000003</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2">
         <v>2</v>
       </c>
     </row>
@@ -2543,7 +2711,9 @@
         <f>B2/F2</f>
         <v>147000.00000000003</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2563,7 +2733,7 @@
         <f>B4/F4</f>
         <v>191571.42857142861</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4">
         <v>7</v>
       </c>
     </row>
@@ -2576,7 +2746,9 @@
         <f>B4/F4</f>
         <v>191571.42857142861</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="7"/>
@@ -2587,7 +2759,9 @@
         <f>B4/F4</f>
         <v>191571.42857142861</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="7"/>
@@ -2598,7 +2772,9 @@
         <f>B4/F4</f>
         <v>191571.42857142861</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
@@ -2609,7 +2785,9 @@
         <f>B4/F4</f>
         <v>191571.42857142861</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="7"/>
@@ -2620,7 +2798,9 @@
         <f>B4/F4</f>
         <v>191571.42857142861</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
@@ -2631,7 +2811,9 @@
         <f>B4/F4</f>
         <v>191571.42857142861</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2651,7 +2833,7 @@
         <f>B11/F11</f>
         <v>91714.285714285696</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11">
         <v>7</v>
       </c>
     </row>
@@ -2664,7 +2846,9 @@
         <f>B11/F11</f>
         <v>91714.285714285696</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
@@ -2675,7 +2859,9 @@
         <f>B11/F11</f>
         <v>91714.285714285696</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="7"/>
@@ -2686,7 +2872,9 @@
         <f>B11/F11</f>
         <v>91714.285714285696</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
@@ -2697,7 +2885,9 @@
         <f>B11/F11</f>
         <v>91714.285714285696</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
@@ -2708,7 +2898,9 @@
         <f>B11/F11</f>
         <v>91714.285714285696</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
@@ -2719,7 +2911,9 @@
         <f>B11/F11</f>
         <v>91714.285714285696</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -2761,7 +2955,7 @@
         <f>B19/F19</f>
         <v>97000.000000000015</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19">
         <v>3</v>
       </c>
     </row>
@@ -2774,7 +2968,9 @@
         <f>B19/F19</f>
         <v>97000.000000000015</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
@@ -2785,7 +2981,9 @@
         <f>B19/F19</f>
         <v>97000.000000000015</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -2807,7 +3005,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F4" sqref="F4:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2866,6 +3064,9 @@
         <f>B2/F2</f>
         <v>84845.6</v>
       </c>
+      <c r="F3" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2898,6 +3099,9 @@
         <f>B4/F4</f>
         <v>111251.62857142858</v>
       </c>
+      <c r="F5" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="7"/>
@@ -2908,6 +3112,9 @@
         <f>B4/F4</f>
         <v>111251.62857142858</v>
       </c>
+      <c r="F6" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="7"/>
@@ -2918,6 +3125,9 @@
         <f>B4/F4</f>
         <v>111251.62857142858</v>
       </c>
+      <c r="F7" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
@@ -2928,6 +3138,9 @@
         <f>B4/F4</f>
         <v>111251.62857142858</v>
       </c>
+      <c r="F8" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="7"/>
@@ -2938,6 +3151,9 @@
         <f>B4/F4</f>
         <v>111251.62857142858</v>
       </c>
+      <c r="F9" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
@@ -2948,6 +3164,9 @@
         <f>B4/F4</f>
         <v>111251.62857142858</v>
       </c>
+      <c r="F10" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2980,6 +3199,9 @@
         <f>B11/F11</f>
         <v>53244.942857142851</v>
       </c>
+      <c r="F12" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
@@ -2990,6 +3212,9 @@
         <f>B11/F11</f>
         <v>53244.942857142851</v>
       </c>
+      <c r="F13" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="7"/>
@@ -3000,6 +3225,9 @@
         <f>B11/F11</f>
         <v>53244.942857142851</v>
       </c>
+      <c r="F14" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
@@ -3010,6 +3238,9 @@
         <f>B11/F11</f>
         <v>53244.942857142851</v>
       </c>
+      <c r="F15" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
@@ -3020,8 +3251,11 @@
         <f>B11/F11</f>
         <v>53244.942857142851</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" t="s">
         <v>30</v>
@@ -3030,8 +3264,11 @@
         <f>B11/F11</f>
         <v>53244.942857142851</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -3050,7 +3287,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F4" sqref="F4:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3096,7 +3333,7 @@
         <f>B2/F2</f>
         <v>105599.60352499998</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2">
         <v>2</v>
       </c>
     </row>
@@ -3109,7 +3346,9 @@
         <f>B2/F2</f>
         <v>105599.60352499998</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3129,7 +3368,7 @@
         <f>B4/F4</f>
         <v>66222.663278571432</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4">
         <v>7</v>
       </c>
     </row>
@@ -3142,7 +3381,9 @@
         <f>B4/F4</f>
         <v>66222.663278571432</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="7"/>
@@ -3153,7 +3394,9 @@
         <f>B4/F4</f>
         <v>66222.663278571432</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="7"/>
@@ -3164,7 +3407,9 @@
         <f>B4/F4</f>
         <v>66222.663278571432</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
@@ -3175,7 +3420,9 @@
         <f>B4/F4</f>
         <v>66222.663278571432</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="7"/>
@@ -3186,7 +3433,9 @@
         <f>B4/F4</f>
         <v>66222.663278571432</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
@@ -3197,7 +3446,9 @@
         <f>B4/F4</f>
         <v>66222.663278571432</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -3220,7 +3471,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F4" sqref="F4:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3266,7 +3517,7 @@
         <f>B2/F2</f>
         <v>120526.859</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2">
         <v>2</v>
       </c>
     </row>
@@ -3279,7 +3530,9 @@
         <f>B2/F2</f>
         <v>120526.859</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3299,7 +3552,7 @@
         <f>B4/F4</f>
         <v>157332.57085714285</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4">
         <v>7</v>
       </c>
     </row>
@@ -3312,7 +3565,9 @@
         <f>B4/F4</f>
         <v>157332.57085714285</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="7"/>
@@ -3323,7 +3578,9 @@
         <f>B4/F4</f>
         <v>157332.57085714285</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="7"/>
@@ -3334,7 +3591,9 @@
         <f>B4/F4</f>
         <v>157332.57085714285</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
@@ -3345,7 +3604,9 @@
         <f>B4/F4</f>
         <v>157332.57085714285</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="7"/>
@@ -3356,7 +3617,9 @@
         <f>B4/F4</f>
         <v>157332.57085714285</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
@@ -3367,7 +3630,9 @@
         <f>B4/F4</f>
         <v>157332.57085714285</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -3387,7 +3652,7 @@
         <f>B11/F11</f>
         <v>75191.067999999999</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11">
         <v>7</v>
       </c>
     </row>
@@ -3400,7 +3665,9 @@
         <f>B11/F11</f>
         <v>75191.067999999999</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
@@ -3411,7 +3678,9 @@
         <f>B11/F11</f>
         <v>75191.067999999999</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="7"/>
@@ -3422,7 +3691,9 @@
         <f>B11/F11</f>
         <v>75191.067999999999</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
@@ -3433,7 +3704,9 @@
         <f>B11/F11</f>
         <v>75191.067999999999</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
@@ -3444,7 +3717,9 @@
         <f>B11/F11</f>
         <v>75191.067999999999</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
@@ -3455,7 +3730,9 @@
         <f>B11/F11</f>
         <v>75191.067999999999</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -3497,7 +3774,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F4" sqref="F4:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3544,7 +3821,7 @@
         <f>B2/F2</f>
         <v>146964.14200000002</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2">
         <v>2</v>
       </c>
     </row>
@@ -3557,7 +3834,9 @@
         <f>B2/F2</f>
         <v>146964.14200000002</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3577,7 +3856,7 @@
         <f>B4/F4</f>
         <v>92162.816571428571</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4">
         <v>7</v>
       </c>
     </row>
@@ -3590,7 +3869,9 @@
         <f>B4/F4</f>
         <v>92162.816571428571</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
@@ -3601,7 +3882,9 @@
         <f>B4/F4</f>
         <v>92162.816571428571</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
@@ -3612,7 +3895,9 @@
         <f>B4/F4</f>
         <v>92162.816571428571</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
@@ -3623,7 +3908,9 @@
         <f>B4/F4</f>
         <v>92162.816571428571</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
@@ -3634,7 +3921,9 @@
         <f>B4/F4</f>
         <v>92162.816571428571</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
@@ -3645,7 +3934,9 @@
         <f>B4/F4</f>
         <v>92162.816571428571</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -3677,7 +3968,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F26" sqref="F26:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3736,6 +4027,9 @@
         <f>B2/F2</f>
         <v>1586200</v>
       </c>
+      <c r="F3" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3768,6 +4062,9 @@
         <f>B4/F4</f>
         <v>2076800</v>
       </c>
+      <c r="F5" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="7"/>
@@ -3778,6 +4075,9 @@
         <f>B4/F4</f>
         <v>2076800</v>
       </c>
+      <c r="F6" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="7"/>
@@ -3788,6 +4088,9 @@
         <f>B4/F4</f>
         <v>2076800</v>
       </c>
+      <c r="F7" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
@@ -3798,6 +4101,9 @@
         <f>B4/F4</f>
         <v>2076800</v>
       </c>
+      <c r="F8" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="7"/>
@@ -3808,6 +4114,9 @@
         <f>B4/F4</f>
         <v>2076800</v>
       </c>
+      <c r="F9" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
@@ -3818,6 +4127,9 @@
         <f>B4/F4</f>
         <v>2076800</v>
       </c>
+      <c r="F10" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -3850,6 +4162,9 @@
         <f>B11/F11</f>
         <v>994400</v>
       </c>
+      <c r="F12" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
@@ -3860,6 +4175,9 @@
         <f>B11/F11</f>
         <v>994400</v>
       </c>
+      <c r="F13" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="7"/>
@@ -3870,6 +4188,9 @@
         <f>B11/F11</f>
         <v>994400</v>
       </c>
+      <c r="F14" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
@@ -3880,6 +4201,9 @@
         <f>B11/F11</f>
         <v>994400</v>
       </c>
+      <c r="F15" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
@@ -3890,6 +4214,9 @@
         <f>B11/F11</f>
         <v>994400</v>
       </c>
+      <c r="F16" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
@@ -3900,6 +4227,9 @@
         <f>B11/F11</f>
         <v>994400</v>
       </c>
+      <c r="F17" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -3932,6 +4262,9 @@
         <f>B18/F18</f>
         <v>299200</v>
       </c>
+      <c r="F19" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" s="7"/>
@@ -3942,6 +4275,9 @@
         <f>B18/F18</f>
         <v>299200</v>
       </c>
+      <c r="F20" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
@@ -3952,6 +4288,9 @@
         <f>B18/F18</f>
         <v>299200</v>
       </c>
+      <c r="F21" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" s="7"/>
@@ -3962,6 +4301,9 @@
         <f>B18/F18</f>
         <v>299200</v>
       </c>
+      <c r="F22" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" s="7"/>
@@ -3972,6 +4314,9 @@
         <f>B18/F18</f>
         <v>299200</v>
       </c>
+      <c r="F23" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" s="7"/>
@@ -3982,6 +4327,9 @@
         <f>B18/F18</f>
         <v>299200</v>
       </c>
+      <c r="F24" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -4036,6 +4384,9 @@
         <f>B26/F26</f>
         <v>1047200</v>
       </c>
+      <c r="F27" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" s="7"/>
@@ -4045,6 +4396,9 @@
       <c r="E28" s="1">
         <f>B26/F26</f>
         <v>1047200</v>
+      </c>
+      <c r="F28" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -4064,8 +4418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4130,6 +4484,9 @@
         <f>B2/F2</f>
         <v>458814.69899999996</v>
       </c>
+      <c r="F3" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -4162,6 +4519,9 @@
         <f>B4/F4</f>
         <v>600690.49199999997</v>
       </c>
+      <c r="F5" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="7"/>
@@ -4172,6 +4532,9 @@
         <f>B4/F4</f>
         <v>600690.49199999997</v>
       </c>
+      <c r="F6" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="7"/>
@@ -4182,6 +4545,9 @@
         <f>B4/F4</f>
         <v>600690.49199999997</v>
       </c>
+      <c r="F7" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
@@ -4192,6 +4558,9 @@
         <f>B4/F4</f>
         <v>600690.49199999997</v>
       </c>
+      <c r="F8" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="7"/>
@@ -4202,6 +4571,9 @@
         <f>B4/F4</f>
         <v>600690.49199999997</v>
       </c>
+      <c r="F9" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
@@ -4212,6 +4584,9 @@
         <f>B4/F4</f>
         <v>600690.49199999997</v>
       </c>
+      <c r="F10" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -4244,6 +4619,9 @@
         <f>B11/F11</f>
         <v>287070.31800000003</v>
       </c>
+      <c r="F12" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
@@ -4254,6 +4632,9 @@
         <f>B11/F11</f>
         <v>287070.31800000003</v>
       </c>
+      <c r="F13" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="7"/>
@@ -4264,6 +4645,9 @@
         <f>B11/F11</f>
         <v>287070.31800000003</v>
       </c>
+      <c r="F14" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
@@ -4274,6 +4658,9 @@
         <f>B11/F11</f>
         <v>287070.31800000003</v>
       </c>
+      <c r="F15" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
@@ -4284,6 +4671,9 @@
         <f>B11/F11</f>
         <v>287070.31800000003</v>
       </c>
+      <c r="F16" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
@@ -4294,6 +4684,9 @@
         <f>B11/F11</f>
         <v>287070.31800000003</v>
       </c>
+      <c r="F17" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -4326,6 +4719,9 @@
         <f>B18/F18</f>
         <v>151002.30599999998</v>
       </c>
+      <c r="F19" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" s="7"/>
@@ -4336,6 +4732,9 @@
         <f>B18/F18</f>
         <v>151002.30599999998</v>
       </c>
+      <c r="F20" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
@@ -4346,6 +4745,9 @@
         <f>B18/F18</f>
         <v>151002.30599999998</v>
       </c>
+      <c r="F21" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -4378,6 +4780,9 @@
         <f>B22/F22</f>
         <v>110347.83899999999</v>
       </c>
+      <c r="F23" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" s="7"/>
@@ -4388,6 +4793,9 @@
         <f>B22/F22</f>
         <v>110347.83899999999</v>
       </c>
+      <c r="F24" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" s="7"/>
@@ -4398,6 +4806,9 @@
         <f>B22/F22</f>
         <v>110347.83899999999</v>
       </c>
+      <c r="F25" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" s="7"/>
@@ -4408,6 +4819,9 @@
         <f>B22/F22</f>
         <v>110347.83899999999</v>
       </c>
+      <c r="F26" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" s="7"/>
@@ -4418,6 +4832,9 @@
         <f>B22/F22</f>
         <v>110347.83899999999</v>
       </c>
+      <c r="F27" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -4450,6 +4867,9 @@
         <f>B28/F28</f>
         <v>86287.031999999992</v>
       </c>
+      <c r="F29" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" s="7"/>
@@ -4460,6 +4880,9 @@
         <f>B28/F28</f>
         <v>86287.031999999992</v>
       </c>
+      <c r="F30" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" s="7"/>
@@ -4470,6 +4893,9 @@
         <f>B28/F28</f>
         <v>86287.031999999992</v>
       </c>
+      <c r="F31" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" s="7"/>
@@ -4480,6 +4906,9 @@
         <f>B28/F28</f>
         <v>86287.031999999992</v>
       </c>
+      <c r="F32" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" s="7"/>
@@ -4490,6 +4919,9 @@
         <f>B28/F28</f>
         <v>86287.031999999992</v>
       </c>
+      <c r="F33" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" s="7"/>
@@ -4500,6 +4932,9 @@
         <f>B28/F28</f>
         <v>86287.031999999992</v>
       </c>
+      <c r="F34" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -4531,6 +4966,9 @@
       <c r="E36" s="1">
         <f>B35/F35</f>
         <v>120027.474</v>
+      </c>
+      <c r="F36" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -4539,6 +4977,9 @@
         <f>B35/F35</f>
         <v>120027.474</v>
       </c>
+      <c r="F37" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -4593,6 +5034,9 @@
         <f>B39/F39</f>
         <v>302004.61199999996</v>
       </c>
+      <c r="F40" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" s="7"/>
@@ -4603,6 +5047,9 @@
         <f>B39/F39</f>
         <v>302004.61199999996</v>
       </c>
+      <c r="F41" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
